--- a/Sberbank/wwwroot/Upload/Исходные малые.xlsx
+++ b/Sberbank/wwwroot/Upload/Исходные малые.xlsx
@@ -460,7 +460,7 @@
   <dimension ref="A1:G182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D4"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Sberbank/wwwroot/Upload/Исходные малые.xlsx
+++ b/Sberbank/wwwroot/Upload/Исходные малые.xlsx
@@ -460,7 +460,7 @@
   <dimension ref="A1:G182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -499,7 +499,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="10">
-        <v>42743</v>
+        <v>42745</v>
       </c>
       <c r="B3" s="7">
         <v>2884689528.1399975</v>
@@ -515,7 +515,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="10">
-        <v>42744</v>
+        <v>42746</v>
       </c>
       <c r="B4" s="7">
         <v>3884689528.1399999</v>
